--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,12 +43,12 @@
     <t>poorly</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
     <t>useless</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
@@ -70,49 +70,55 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>beautiful</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>husband</t>
   </si>
   <si>
     <t>family</t>
@@ -121,184 +127,190 @@
     <t>glad</t>
   </si>
   <si>
-    <t>husband</t>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cheese</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
     <t>wife</t>
   </si>
   <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>sturdy</t>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>comfortable</t>
   </si>
   <si>
-    <t>ever</t>
+    <t>old</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>old</t>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>day</t>
   </si>
   <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>w</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>keeps</t>
   </si>
   <si>
     <t>cook</t>
   </si>
   <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>dish</t>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>bought</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>works</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>big</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>fast</t>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>long</t>
   </si>
   <si>
     <t>also</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>makes</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>make</t>
+    <t>really</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>buy</t>
+    <t>much</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>used</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>product</t>
   </si>
   <si>
     <t>positive</t>
@@ -659,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -670,7 +682,7 @@
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -728,13 +740,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7931034482758621</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -746,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>16</v>
@@ -778,7 +790,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6296296296296297</v>
+        <v>0.425</v>
       </c>
       <c r="C4">
         <v>17</v>
@@ -796,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K4">
-        <v>0.8984375</v>
+        <v>0.90625</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -820,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -828,13 +840,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.45</v>
+        <v>0.2830188679245283</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -846,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K5">
-        <v>0.8840579710144928</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L5">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="M5">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -870,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -902,13 +914,13 @@
         <v>19</v>
       </c>
       <c r="K6">
-        <v>0.8421052631578947</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L6">
-        <v>544</v>
+        <v>59</v>
       </c>
       <c r="M6">
-        <v>544</v>
+        <v>59</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -920,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>102</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -928,13 +940,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2307692307692308</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -946,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K7">
-        <v>0.7826086956521739</v>
+        <v>0.8390092879256966</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>542</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>542</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -970,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -978,13 +990,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1717171717171717</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -996,19 +1008,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K8">
-        <v>0.7402597402597403</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1020,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1028,13 +1040,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0972972972972973</v>
+        <v>0.1135135135135135</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1046,19 +1058,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K9">
-        <v>0.7241379310344828</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1070,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1078,13 +1090,13 @@
         <v>23</v>
       </c>
       <c r="K10">
-        <v>0.7045454545454546</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1096,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1104,13 +1116,13 @@
         <v>24</v>
       </c>
       <c r="K11">
-        <v>0.683982683982684</v>
+        <v>0.70995670995671</v>
       </c>
       <c r="L11">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M11">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1122,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1130,13 +1142,13 @@
         <v>25</v>
       </c>
       <c r="K12">
-        <v>0.6571428571428571</v>
+        <v>0.688135593220339</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>203</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>203</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1148,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1156,13 +1168,13 @@
         <v>26</v>
       </c>
       <c r="K13">
-        <v>0.6438356164383562</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L13">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1174,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1208,13 +1220,13 @@
         <v>28</v>
       </c>
       <c r="K15">
-        <v>0.6305084745762712</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L15">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="M15">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1226,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>109</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1234,13 +1246,13 @@
         <v>29</v>
       </c>
       <c r="K16">
-        <v>0.6222222222222222</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1252,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1260,13 +1272,13 @@
         <v>30</v>
       </c>
       <c r="K17">
-        <v>0.6176470588235294</v>
+        <v>0.6276083467094703</v>
       </c>
       <c r="L17">
-        <v>42</v>
+        <v>782</v>
       </c>
       <c r="M17">
-        <v>42</v>
+        <v>782</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1278,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1286,13 +1298,13 @@
         <v>31</v>
       </c>
       <c r="K18">
-        <v>0.6171749598715891</v>
+        <v>0.6228571428571429</v>
       </c>
       <c r="L18">
-        <v>769</v>
+        <v>109</v>
       </c>
       <c r="M18">
-        <v>769</v>
+        <v>109</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1304,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>477</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1312,13 +1324,13 @@
         <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6171428571428571</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L19">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="M19">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1330,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>67</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1338,13 +1350,13 @@
         <v>33</v>
       </c>
       <c r="K20">
-        <v>0.5692307692307692</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="L20">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="M20">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1356,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1364,13 +1376,13 @@
         <v>34</v>
       </c>
       <c r="K21">
-        <v>0.5625</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1382,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1390,25 +1402,25 @@
         <v>35</v>
       </c>
       <c r="K22">
-        <v>0.543859649122807</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L22">
+        <v>34</v>
+      </c>
+      <c r="M22">
+        <v>34</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>31</v>
-      </c>
-      <c r="M22">
-        <v>31</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>26</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1416,13 +1428,13 @@
         <v>36</v>
       </c>
       <c r="K23">
-        <v>0.53125</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L23">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1434,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1442,13 +1454,13 @@
         <v>37</v>
       </c>
       <c r="K24">
-        <v>0.5138888888888888</v>
+        <v>0.5089820359281437</v>
       </c>
       <c r="L24">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="M24">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1460,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>35</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1468,13 +1480,13 @@
         <v>38</v>
       </c>
       <c r="K25">
-        <v>0.5</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L25">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="M25">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1486,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1494,13 +1506,13 @@
         <v>39</v>
       </c>
       <c r="K26">
-        <v>0.4901960784313725</v>
+        <v>0.5</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1512,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1520,13 +1532,13 @@
         <v>40</v>
       </c>
       <c r="K27">
-        <v>0.4819277108433735</v>
+        <v>0.4887218045112782</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="M27">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1538,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1546,13 +1558,13 @@
         <v>41</v>
       </c>
       <c r="K28">
-        <v>0.4786324786324787</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L28">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M28">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1564,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1572,13 +1584,13 @@
         <v>42</v>
       </c>
       <c r="K29">
-        <v>0.4730538922155689</v>
+        <v>0.46</v>
       </c>
       <c r="L29">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="M29">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1590,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1598,13 +1610,13 @@
         <v>43</v>
       </c>
       <c r="K30">
-        <v>0.4426229508196721</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L30">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M30">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1616,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1624,13 +1636,13 @@
         <v>44</v>
       </c>
       <c r="K31">
-        <v>0.4360902255639098</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L31">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="M31">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1642,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1650,13 +1662,13 @@
         <v>45</v>
       </c>
       <c r="K32">
-        <v>0.4197530864197531</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="L32">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M32">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1668,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1676,13 +1688,13 @@
         <v>46</v>
       </c>
       <c r="K33">
-        <v>0.4126984126984127</v>
+        <v>0.3815789473684211</v>
       </c>
       <c r="L33">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M33">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1694,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1702,13 +1714,13 @@
         <v>47</v>
       </c>
       <c r="K34">
-        <v>0.41</v>
+        <v>0.3734939759036144</v>
       </c>
       <c r="L34">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="M34">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1720,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>59</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1728,13 +1740,13 @@
         <v>48</v>
       </c>
       <c r="K35">
-        <v>0.3846153846153846</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1746,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1754,13 +1766,13 @@
         <v>49</v>
       </c>
       <c r="K36">
-        <v>0.3734939759036144</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L36">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1772,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>104</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1780,13 +1792,13 @@
         <v>50</v>
       </c>
       <c r="K37">
-        <v>0.3421052631578947</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="L37">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="M37">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1798,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>50</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1806,25 +1818,25 @@
         <v>51</v>
       </c>
       <c r="K38">
-        <v>0.3415233415233415</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="L38">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="M38">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="N38">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>268</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1832,13 +1844,13 @@
         <v>52</v>
       </c>
       <c r="K39">
-        <v>0.3265306122448979</v>
+        <v>0.3082706766917293</v>
       </c>
       <c r="L39">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M39">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1850,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>33</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1858,13 +1870,13 @@
         <v>53</v>
       </c>
       <c r="K40">
-        <v>0.3230769230769231</v>
+        <v>0.3035019455252918</v>
       </c>
       <c r="L40">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="M40">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1876,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>44</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1884,13 +1896,13 @@
         <v>54</v>
       </c>
       <c r="K41">
-        <v>0.311284046692607</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="L41">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="M41">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1902,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>177</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1910,13 +1922,13 @@
         <v>55</v>
       </c>
       <c r="K42">
-        <v>0.3082706766917293</v>
+        <v>0.2835616438356164</v>
       </c>
       <c r="L42">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="M42">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1928,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>92</v>
+        <v>523</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1936,13 +1948,13 @@
         <v>56</v>
       </c>
       <c r="K43">
-        <v>0.2679425837320574</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="L43">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M43">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1954,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>153</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1962,13 +1974,13 @@
         <v>57</v>
       </c>
       <c r="K44">
-        <v>0.2602739726027397</v>
+        <v>0.2419354838709677</v>
       </c>
       <c r="L44">
-        <v>190</v>
+        <v>15</v>
       </c>
       <c r="M44">
-        <v>190</v>
+        <v>15</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1980,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>540</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1988,13 +2000,13 @@
         <v>58</v>
       </c>
       <c r="K45">
-        <v>0.2446043165467626</v>
+        <v>0.237410071942446</v>
       </c>
       <c r="L45">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M45">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2006,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2014,13 +2026,13 @@
         <v>59</v>
       </c>
       <c r="K46">
-        <v>0.2419354838709677</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="L46">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M46">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2032,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2040,13 +2052,13 @@
         <v>60</v>
       </c>
       <c r="K47">
-        <v>0.2357373519913886</v>
+        <v>0.2236842105263158</v>
       </c>
       <c r="L47">
-        <v>219</v>
+        <v>17</v>
       </c>
       <c r="M47">
-        <v>219</v>
+        <v>17</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2058,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>710</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2066,13 +2078,13 @@
         <v>61</v>
       </c>
       <c r="K48">
-        <v>0.2222222222222222</v>
+        <v>0.2217438105489774</v>
       </c>
       <c r="L48">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="M48">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2084,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>84</v>
+        <v>723</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2092,13 +2104,13 @@
         <v>62</v>
       </c>
       <c r="K49">
-        <v>0.2205882352941176</v>
+        <v>0.2079207920792079</v>
       </c>
       <c r="L49">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M49">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2110,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>53</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2118,13 +2130,13 @@
         <v>63</v>
       </c>
       <c r="K50">
-        <v>0.2178217821782178</v>
+        <v>0.2009569377990431</v>
       </c>
       <c r="L50">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="M50">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2136,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>79</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2144,13 +2156,13 @@
         <v>64</v>
       </c>
       <c r="K51">
-        <v>0.2100313479623825</v>
+        <v>0.2</v>
       </c>
       <c r="L51">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="M51">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2162,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>252</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2170,13 +2182,13 @@
         <v>65</v>
       </c>
       <c r="K52">
-        <v>0.2072072072072072</v>
+        <v>0.1849529780564263</v>
       </c>
       <c r="L52">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="M52">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2188,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>88</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2196,7 +2208,7 @@
         <v>66</v>
       </c>
       <c r="K53">
-        <v>0.1973684210526316</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="L53">
         <v>15</v>
@@ -2214,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2222,13 +2234,13 @@
         <v>67</v>
       </c>
       <c r="K54">
-        <v>0.1854304635761589</v>
+        <v>0.1735099337748344</v>
       </c>
       <c r="L54">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="M54">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2240,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>123</v>
+        <v>624</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2248,13 +2260,13 @@
         <v>68</v>
       </c>
       <c r="K55">
-        <v>0.180306905370844</v>
+        <v>0.1726342710997442</v>
       </c>
       <c r="L55">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M55">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2266,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>641</v>
+        <v>647</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2274,13 +2286,13 @@
         <v>69</v>
       </c>
       <c r="K56">
-        <v>0.1801801801801802</v>
+        <v>0.1559633027522936</v>
       </c>
       <c r="L56">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M56">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2292,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2300,13 +2312,13 @@
         <v>70</v>
       </c>
       <c r="K57">
-        <v>0.1743119266055046</v>
+        <v>0.1531531531531531</v>
       </c>
       <c r="L57">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M57">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2318,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2326,13 +2338,13 @@
         <v>71</v>
       </c>
       <c r="K58">
-        <v>0.1677852348993289</v>
+        <v>0.152317880794702</v>
       </c>
       <c r="L58">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M58">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2344,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2352,13 +2364,13 @@
         <v>72</v>
       </c>
       <c r="K59">
-        <v>0.1483443708609272</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="L59">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="M59">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2370,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>643</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2378,13 +2390,13 @@
         <v>73</v>
       </c>
       <c r="K60">
-        <v>0.134020618556701</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L60">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="M60">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2396,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>252</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2404,13 +2416,13 @@
         <v>74</v>
       </c>
       <c r="K61">
-        <v>0.124031007751938</v>
+        <v>0.1327433628318584</v>
       </c>
       <c r="L61">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M61">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2422,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2430,13 +2442,13 @@
         <v>75</v>
       </c>
       <c r="K62">
-        <v>0.1083743842364532</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="L62">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M62">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2448,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>181</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2456,13 +2468,13 @@
         <v>76</v>
       </c>
       <c r="K63">
-        <v>0.1046228710462287</v>
+        <v>0.1289537712895377</v>
       </c>
       <c r="L63">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="M63">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2474,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2482,13 +2494,13 @@
         <v>77</v>
       </c>
       <c r="K64">
-        <v>0.1036585365853658</v>
+        <v>0.1275167785234899</v>
       </c>
       <c r="L64">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M64">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2500,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2508,25 +2520,25 @@
         <v>78</v>
       </c>
       <c r="K65">
-        <v>0.1033210332103321</v>
+        <v>0.1226993865030675</v>
       </c>
       <c r="L65">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M65">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>243</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2534,25 +2546,25 @@
         <v>79</v>
       </c>
       <c r="K66">
-        <v>0.09973045822102426</v>
+        <v>0.1189189189189189</v>
       </c>
       <c r="L66">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="M66">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2560,13 +2572,13 @@
         <v>80</v>
       </c>
       <c r="K67">
-        <v>0.09663865546218488</v>
+        <v>0.1151515151515152</v>
       </c>
       <c r="L67">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M67">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2578,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>215</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2586,13 +2598,13 @@
         <v>81</v>
       </c>
       <c r="K68">
-        <v>0.09615384615384616</v>
+        <v>0.1134020618556701</v>
       </c>
       <c r="L68">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M68">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2604,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>141</v>
+        <v>258</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2612,13 +2624,13 @@
         <v>82</v>
       </c>
       <c r="K69">
-        <v>0.09318181818181819</v>
+        <v>0.1008403361344538</v>
       </c>
       <c r="L69">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M69">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2630,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>399</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2638,7 +2650,7 @@
         <v>83</v>
       </c>
       <c r="K70">
-        <v>0.0903954802259887</v>
+        <v>0.09815950920245399</v>
       </c>
       <c r="L70">
         <v>16</v>
@@ -2656,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2664,13 +2676,13 @@
         <v>84</v>
       </c>
       <c r="K71">
-        <v>0.08148148148148149</v>
+        <v>0.096045197740113</v>
       </c>
       <c r="L71">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M71">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2682,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>248</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2690,13 +2702,13 @@
         <v>85</v>
       </c>
       <c r="K72">
-        <v>0.06682577565632458</v>
+        <v>0.09318181818181819</v>
       </c>
       <c r="L72">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="M72">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2708,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2716,13 +2728,13 @@
         <v>86</v>
       </c>
       <c r="K73">
-        <v>0.06140350877192982</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="L73">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M73">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2734,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>428</v>
+        <v>416</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2742,25 +2754,25 @@
         <v>87</v>
       </c>
       <c r="K74">
-        <v>0.05882352941176471</v>
+        <v>0.08518518518518518</v>
       </c>
       <c r="L74">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M74">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="N74">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>656</v>
+        <v>247</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2768,13 +2780,13 @@
         <v>88</v>
       </c>
       <c r="K75">
-        <v>0.05737704918032787</v>
+        <v>0.08173076923076923</v>
       </c>
       <c r="L75">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M75">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2786,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>345</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2794,25 +2806,25 @@
         <v>89</v>
       </c>
       <c r="K76">
-        <v>0.05322128851540616</v>
+        <v>0.07881773399014778</v>
       </c>
       <c r="L76">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="M76">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="N76">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>1014</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2820,13 +2832,13 @@
         <v>90</v>
       </c>
       <c r="K77">
-        <v>0.04822335025380711</v>
+        <v>0.06642066420664207</v>
       </c>
       <c r="L77">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M77">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2838,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>375</v>
+        <v>253</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2846,13 +2858,13 @@
         <v>91</v>
       </c>
       <c r="K78">
-        <v>0.04243542435424354</v>
+        <v>0.06010928961748634</v>
       </c>
       <c r="L78">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M78">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2864,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>519</v>
+        <v>344</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2872,25 +2884,25 @@
         <v>92</v>
       </c>
       <c r="K79">
-        <v>0.04030710172744722</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="L79">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="M79">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="N79">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="O79">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>500</v>
+        <v>656</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -2898,13 +2910,13 @@
         <v>93</v>
       </c>
       <c r="K80">
-        <v>0.0233362143474503</v>
+        <v>0.05037313432835821</v>
       </c>
       <c r="L80">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="M80">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -2916,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>1130</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -2924,25 +2936,129 @@
         <v>94</v>
       </c>
       <c r="K81">
-        <v>0.01963350785340314</v>
+        <v>0.0477326968973747</v>
       </c>
       <c r="L81">
+        <v>20</v>
+      </c>
+      <c r="M81">
+        <v>20</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K82">
+        <v>0.04120879120879121</v>
+      </c>
+      <c r="L82">
         <v>15</v>
       </c>
-      <c r="M81">
-        <v>18</v>
-      </c>
-      <c r="N81">
-        <v>0.83</v>
-      </c>
-      <c r="O81">
-        <v>0.17</v>
-      </c>
-      <c r="P81" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q81">
-        <v>749</v>
+      <c r="M82">
+        <v>16</v>
+      </c>
+      <c r="N82">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O82">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K83">
+        <v>0.03690036900369004</v>
+      </c>
+      <c r="L83">
+        <v>20</v>
+      </c>
+      <c r="M83">
+        <v>20</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K84">
+        <v>0.02938634399308557</v>
+      </c>
+      <c r="L84">
+        <v>34</v>
+      </c>
+      <c r="M84">
+        <v>34</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K85">
+        <v>0.02879078694817658</v>
+      </c>
+      <c r="L85">
+        <v>15</v>
+      </c>
+      <c r="M85">
+        <v>16</v>
+      </c>
+      <c r="N85">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O85">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>506</v>
       </c>
     </row>
   </sheetData>
